--- a/portfolios/My Index 2014.xlsx
+++ b/portfolios/My Index 2014.xlsx
@@ -84,9 +84,6 @@
     <t>Net Gain/(Loss)</t>
   </si>
   <si>
-    <t>NTFLX</t>
-  </si>
-  <si>
     <t>ATVI</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>NFLX</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -610,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="20">
         <v>2</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="20">
         <v>5</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="20">
         <v>200</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="20">
         <v>5</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="20">
         <v>5</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20">
         <v>200</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="20">
         <v>500</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="20">
         <v>8</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="20">
         <v>3</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="20">
         <v>3</v>
@@ -1283,7 +1283,7 @@
         <v>3184.96</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="K13:O13" si="6">SUM(L2:L12)</f>
+        <f t="shared" ref="L13:O13" si="6">SUM(L2:L12)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
